--- a/Seminar_02/task_03.xlsx
+++ b/Seminar_02/task_03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk\2_home\Learn_Programming\GeekBrains\Labs\Labs_GB\Databases\Seminars\Seminar_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834A7966-3545-4FE8-9457-9B1FC3FA91BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5056F02C-C5FB-4C9A-B804-FF65B8B437E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="2235" windowWidth="21600" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{8DB1C3B4-D7D5-47B6-AE4F-CFA942A81239}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{8DB1C3B4-D7D5-47B6-AE4F-CFA942A81239}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>SELECT ФИО, Тел, Коммент FROM Люди LEFT JOIN Телефоны ON id = Чей телефон</t>
   </si>
@@ -85,6 +85,48 @@
   </si>
   <si>
     <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Можга</t>
+  </si>
+  <si>
+    <t>Казань</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Белгород</t>
+  </si>
+  <si>
+    <t>Уфа</t>
+  </si>
+  <si>
+    <t>Сочи</t>
+  </si>
+  <si>
+    <t>Киров</t>
+  </si>
+  <si>
+    <t>Владивосток</t>
+  </si>
+  <si>
+    <t>Рязань</t>
+  </si>
+  <si>
+    <t>Хабаровск</t>
+  </si>
+  <si>
+    <t>Место рождения</t>
+  </si>
+  <si>
+    <t>По прописке</t>
+  </si>
+  <si>
+    <t>Рабочий</t>
   </si>
 </sst>
 </file>
@@ -637,10 +679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D7221A-19B0-45B1-91DB-3BF717D35503}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,6 +708,138 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
